--- a/Excel/01 - Registrasi.xlsx
+++ b/Excel/01 - Registrasi.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fetty\Katalon Studio\MonsterCode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{6B2A26D9-C3FD-4F06-825C-F383209182ED}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA3858-9ED1-4AC2-B648-C815A98878B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{A05DB7F4-F8BF-4808-AFD6-24300ABC2E6B}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A05DB7F4-F8BF-4808-AFD6-24300ABC2E6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="suksesRegis" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId2" sheetId="2"/>
+    <sheet name="suksesRegis" sheetId="1" r:id="rId1"/>
+    <sheet name="negative-skenario" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>email</t>
   </si>
@@ -43,21 +43,9 @@
     <t>password</t>
   </si>
   <si>
-    <t>jennifer.smith@outlook.com</t>
-  </si>
-  <si>
-    <t>lzCJmpl0gJ</t>
-  </si>
-  <si>
-    <t>fullName</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
-    <t>validasi_fullName</t>
-  </si>
-  <si>
     <t>validasi_email</t>
   </si>
   <si>
@@ -83,13 +71,42 @@
   </si>
   <si>
     <t>gFj3wTRO77</t>
+  </si>
+  <si>
+    <t>skenario</t>
+  </si>
+  <si>
+    <t>missing required fields</t>
+  </si>
+  <si>
+    <t>invalid email format</t>
+  </si>
+  <si>
+    <t>invalid password</t>
+  </si>
+  <si>
+    <t>test@test</t>
+  </si>
+  <si>
+    <t>Format email (Cth: asd@xxx.com)</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Please use at least 8 characters</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>validasi_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,19 +142,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -154,10 +172,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -192,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -244,7 +262,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -355,21 +373,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -386,7 +404,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -438,15 +456,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03B7579-1684-4DC8-A3B5-01DB398BB721}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03B7579-1684-4DC8-A3B5-01DB398BB721}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -454,8 +472,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="false"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,79 +486,111 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2" xr:uid="{B297E211-0A8D-48CA-BEDE-24FE690081BD}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B297E211-0A8D-48CA-BEDE-24FE690081BD}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7AC76B-6F9F-4C3E-B207-2CCC23A94CDD}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7AC76B-6F9F-4C3E-B207-2CCC23A94CDD}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="30.42578125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="25.140625" collapsed="false"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{6929E671-8E6F-460A-98B4-487F3E2DFBF4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/01 - Registrasi.xlsx
+++ b/Excel/01 - Registrasi.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fetty\Katalon Studio\MonsterCode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA3858-9ED1-4AC2-B648-C815A98878B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DADA3858-9ED1-4AC2-B648-C815A98878B6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A05DB7F4-F8BF-4808-AFD6-24300ABC2E6B}"/>
+    <workbookView activeTab="1" windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{A05DB7F4-F8BF-4808-AFD6-24300ABC2E6B}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="suksesRegis" sheetId="1" r:id="rId1"/>
-    <sheet name="negative-skenario" sheetId="2" r:id="rId2"/>
+    <sheet name="suksesRegis" r:id="rId1" sheetId="1"/>
+    <sheet name="negative-skenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>email</t>
   </si>
@@ -101,12 +101,19 @@
   </si>
   <si>
     <t>validasi_name</t>
+  </si>
+  <si>
+    <t>alwi.nimatul@aol.com</t>
+  </si>
+  <si>
+    <t>MlPbTyIZLO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,20 +149,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -172,10 +179,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -210,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -262,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -373,21 +380,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -404,7 +411,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -456,15 +463,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03B7579-1684-4DC8-A3B5-01DB398BB721}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03B7579-1684-4DC8-A3B5-01DB398BB721}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -472,8 +479,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,23 +493,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B297E211-0A8D-48CA-BEDE-24FE690081BD}"/>
+    <hyperlink r:id="rId1" ref="A2" xr:uid="{B297E211-0A8D-48CA-BEDE-24FE690081BD}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7AC76B-6F9F-4C3E-B207-2CCC23A94CDD}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7AC76B-6F9F-4C3E-B207-2CCC23A94CDD}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -510,12 +517,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.28515625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.42578125" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.42578125" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -588,9 +595,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{6929E671-8E6F-460A-98B4-487F3E2DFBF4}"/>
+    <hyperlink r:id="rId1" ref="F2" xr:uid="{6929E671-8E6F-460A-98B4-487F3E2DFBF4}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>